--- a/dados/qualitysp.xlsx
+++ b/dados/qualitysp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:19365747#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=6525463e-8645-4875-8a5c-2a0415d32619</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:19365747#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:19365747#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=6525463e-8645-4875-8a5c-2a0415d32619</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:19365747#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:19365747#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:19365747#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:19365747#searchVariation=MLB22569833&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:19365747#searchVariation=MLB22569833&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423375714-fonte-digital-jfa-storm-automotiva-120a-bivolt-carregador-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4423375714-fonte-digital-jfa-storm-automotiva-120a-bivolt-carregador-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -596,17 +652,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:19365747#searchVariation=MLB29541981&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:19365747#searchVariation=MLB29541981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -621,17 +683,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948538513-controle-de-longa-distncia-som-automotivo-jfa-k1200-azul-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1948538513-controle-de-longa-distncia-som-automotivo-jfa-k1200-azul-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -646,17 +714,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423372216-fonte-storm-digital-jfa-40a-carregador-com-medidor-de-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4423372216-fonte-storm-digital-jfa-40a-carregador-com-medidor-de-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -671,17 +749,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423381104-carregador-jfa-digital-storm-fonte-automotiva-70a-medidor-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4423381104-carregador-jfa-digital-storm-fonte-automotiva-70a-medidor-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -696,17 +784,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423388158-fonte-digital-jfa-storm-automotiva-carregador-120a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4423388158-fonte-digital-jfa-storm-automotiva-carregador-120a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -721,17 +819,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587094409-carregador-digital-fonte-jfa-storm-60a-medidor-de-cca-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3587094409-carregador-digital-fonte-jfa-storm-60a-medidor-de-cca-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -746,17 +854,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948540697-controle-de-longa-distncia-universal-jfa-k1200-azul-1200m-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1948540697-controle-de-longa-distncia-universal-jfa-k1200-azul-1200m-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -771,17 +885,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3586968937-sequenciador-voltimetro-digital-jfa-altabaixa-voltagem-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3586968937-sequenciador-voltimetro-digital-jfa-altabaixa-voltagem-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -796,17 +916,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590198911-filtro-jfa-rca-anti-ruido-2020k-eletromagnetico-stereo-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3590198911-filtro-jfa-rca-anti-ruido-2020k-eletromagnetico-stereo-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -821,17 +947,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587032375-voltimetro-digital-jfa-sequenciador-altabaixa-voltagem-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3587032375-voltimetro-digital-jfa-sequenciador-altabaixa-voltagem-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -846,17 +978,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4431471070-filtro-rca-anti-ruido-jfa-2020k-eletromagnetico-stereo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4431471070-filtro-rca-anti-ruido-jfa-2020k-eletromagnetico-stereo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -871,17 +1009,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803852214-controle-longa-distncia-avulso-jfa-varias-cores-k1200-cx-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803852214-controle-longa-distncia-avulso-jfa-varias-cores-k1200-cx-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -896,17 +1040,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803855509-controle-longa-distncia-avulso-jfa-k1200-cx-varias-cores-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803855509-controle-longa-distncia-avulso-jfa-k1200-cx-varias-cores-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -921,17 +1071,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709379077-kit-4-controle-longa-distancia-jfa-azul-avulso-k1200-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2709379077-kit-4-controle-longa-distancia-jfa-azul-avulso-k1200-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -946,17 +1102,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709347720-par-controle-longa-distancia-reposico-jfa-azul-k1200-avulso-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2709347720-par-controle-longa-distancia-reposico-jfa-azul-k1200-avulso-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -971,17 +1133,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587086063-conversor-rca-jfa-adaptador-comando-remoto-slim-automotivo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3587086063-conversor-rca-jfa-adaptador-comando-remoto-slim-automotivo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -996,17 +1164,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709355441-kit-com-4-controle-longa-distancia-jfa-azul-k1200-avulso-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2709355441-kit-com-4-controle-longa-distancia-jfa-azul-k1200-avulso-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1195,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709334936-kit-2-controle-longa-distancia-azul-jfa-k1200-avulso-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2709334936-kit-2-controle-longa-distancia-azul-jfa-k1200-avulso-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1226,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141326339-controle-reposico-longa-distncia-som-vermelho-jfa-tx-k1200-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D6525463e-8645-4875-8a5c-2a0415d32619</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3141326339-controle-reposico-longa-distncia-som-vermelho-jfa-tx-k1200-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
         </is>
       </c>
     </row>

--- a/dados/qualitysp.xlsx
+++ b/dados/qualitysp.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,15 +476,19 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>445.89</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -497,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:19365747#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:19365747#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -507,14 +511,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>477.12</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -532,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:19365747#searchVariation=MLB21320712&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:19365747#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -542,14 +546,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>493.42</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -567,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:19365747#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:19365747#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -577,14 +581,14 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>436.22</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -602,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:19365747#searchVariation=MLB22569833&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:19365747#searchVariation=MLB22569833&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -612,14 +616,14 @@
           <t xml:space="preserve">Fonte Digital Jfa Storm Automotiva 120a Bivolt Carregador </t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -637,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423375714-fonte-digital-jfa-storm-automotiva-120a-bivolt-carregador-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4423375714-fonte-digital-jfa-storm-automotiva-120a-bivolt-carregador-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -647,13 +651,13 @@
           <t>Controle Longa Distância Reposição Jfa Tx K1200 Som</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>49.3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -668,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:19365747#searchVariation=MLB29541981&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=b2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:19365747#searchVariation=MLB29541981&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -678,13 +682,13 @@
           <t xml:space="preserve">Controle De Longa Distância Som Automotivo Jfa K1200 Azul </t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>41.8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -699,7 +703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948538513-controle-de-longa-distncia-som-automotivo-jfa-k1200-azul-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1948538513-controle-de-longa-distncia-som-automotivo-jfa-k1200-azul-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -709,14 +713,14 @@
           <t>Fonte Storm Digital Jfa 40a Carregador Com Medidor De Cca</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>402.79</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -734,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423372216-fonte-storm-digital-jfa-40a-carregador-com-medidor-de-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4423372216-fonte-storm-digital-jfa-40a-carregador-com-medidor-de-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -744,14 +748,14 @@
           <t>Carregador Jfa Digital Storm Fonte Automotiva 70a Medidor</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>523.63</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -769,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423381104-carregador-jfa-digital-storm-fonte-automotiva-70a-medidor-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4423381104-carregador-jfa-digital-storm-fonte-automotiva-70a-medidor-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -779,14 +783,14 @@
           <t>Fonte Digital Jfa Storm Automotiva Carregador 120a Bivolt</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>634.4</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -804,7 +808,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423388158-fonte-digital-jfa-storm-automotiva-carregador-120a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4423388158-fonte-digital-jfa-storm-automotiva-carregador-120a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -814,14 +818,14 @@
           <t>Carregador Digital Fonte Jfa Storm 60a Medidor De Cca</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>443.11</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -839,7 +843,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587094409-carregador-digital-fonte-jfa-storm-60a-medidor-de-cca-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587094409-carregador-digital-fonte-jfa-storm-60a-medidor-de-cca-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -849,13 +853,13 @@
           <t>Controle De Longa Distância Universal Jfa K1200 Azul 1200m</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>49.99</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -870,7 +874,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948540697-controle-de-longa-distncia-universal-jfa-k1200-azul-1200m-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1948540697-controle-de-longa-distncia-universal-jfa-k1200-azul-1200m-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -880,13 +884,13 @@
           <t>Sequenciador Voltimetro Digital Jfa Alta/baixa Voltagem</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>62.98</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -901,7 +905,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3586968937-sequenciador-voltimetro-digital-jfa-altabaixa-voltagem-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3586968937-sequenciador-voltimetro-digital-jfa-altabaixa-voltagem-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -911,13 +915,13 @@
           <t>Filtro Jfa Rca Anti-ruido 20/20k Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>52.2</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -932,7 +936,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590198911-filtro-jfa-rca-anti-ruido-2020k-eletromagnetico-stereo-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3590198911-filtro-jfa-rca-anti-ruido-2020k-eletromagnetico-stereo-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -942,13 +946,13 @@
           <t>Voltimetro Digital Jfa Sequenciador Alta/baixa Voltagem</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>57.99</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -963,7 +967,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587032375-voltimetro-digital-jfa-sequenciador-altabaixa-voltagem-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587032375-voltimetro-digital-jfa-sequenciador-altabaixa-voltagem-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -973,13 +977,13 @@
           <t>Filtro Rca Anti-ruido Jfa 20/20k Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>52.2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -994,7 +998,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4431471070-filtro-rca-anti-ruido-jfa-2020k-eletromagnetico-stereo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4431471070-filtro-rca-anti-ruido-jfa-2020k-eletromagnetico-stereo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -1004,13 +1008,13 @@
           <t xml:space="preserve">Controle Longa Distância Avulso Jfa Várias Cores K1200 Cx </t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>54.81</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -1025,7 +1029,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803852214-controle-longa-distncia-avulso-jfa-varias-cores-k1200-cx-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1803852214-controle-longa-distncia-avulso-jfa-varias-cores-k1200-cx-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -1035,13 +1039,13 @@
           <t>Controle Longa Distância Avulso Jfa K1200 Cx Várias Cores</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>47.99</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1056,7 +1060,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803855509-controle-longa-distncia-avulso-jfa-k1200-cx-varias-cores-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1803855509-controle-longa-distncia-avulso-jfa-k1200-cx-varias-cores-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -1066,13 +1070,13 @@
           <t>Kit 4 Controle Longa Distancia Jfa Azul Avulso K1200</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>221.61</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1087,7 +1091,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709379077-kit-4-controle-longa-distancia-jfa-azul-avulso-k1200-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2709379077-kit-4-controle-longa-distancia-jfa-azul-avulso-k1200-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -1097,13 +1101,13 @@
           <t>Par Controle Longa Distancia Reposição Jfa Azul K1200 Avulso</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>188.09</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1118,7 +1122,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709347720-par-controle-longa-distancia-reposico-jfa-azul-k1200-avulso-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2709347720-par-controle-longa-distancia-reposico-jfa-azul-k1200-avulso-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -1128,13 +1132,13 @@
           <t>Conversor Rca Jfa Adaptador Comando Remoto Slim Automotivo</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>41.41</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1149,7 +1153,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587086063-conversor-rca-jfa-adaptador-comando-remoto-slim-automotivo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587086063-conversor-rca-jfa-adaptador-comando-remoto-slim-automotivo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -1159,13 +1163,13 @@
           <t>Kit Com 4 Controle Longa Distancia Jfa Azul K1200 Avulso</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>205.42</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1180,7 +1184,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709355441-kit-com-4-controle-longa-distancia-jfa-azul-k1200-avulso-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2709355441-kit-com-4-controle-longa-distancia-jfa-azul-k1200-avulso-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -1190,13 +1194,13 @@
           <t xml:space="preserve">Kit 2 Controle Longa Distancia Azul Jfa K1200 Avulso </t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>102.6</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -1211,7 +1215,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709334936-kit-2-controle-longa-distancia-azul-jfa-k1200-avulso-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2709334936-kit-2-controle-longa-distancia-azul-jfa-k1200-avulso-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>
@@ -1221,13 +1225,13 @@
           <t>Controle Reposição Longa Distância Som Vermelho Jfa Tx K1200</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>46.75</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1242,7 +1246,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141326339-controle-reposico-longa-distncia-som-vermelho-jfa-tx-k1200-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Db2671fdd-9475-4222-b116-ad49a565daa4</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3141326339-controle-reposico-longa-distncia-som-vermelho-jfa-tx-k1200-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
         </is>
       </c>
     </row>

--- a/dados/qualitysp.xlsx
+++ b/dados/qualitysp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,51 +473,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>445.89</v>
+        <v>493.42</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:19365747#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:19365747#searchVariation=MLB21455208&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>477.12</v>
+        <v>436.22</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:19365747#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:19365747#searchVariation=MLB22569833&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Storm Digital Jfa 40a Carregador Com Medidor De Cca</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>493.42</v>
+        <v>402.79</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,27 +571,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:19365747#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4423372216-fonte-storm-digital-jfa-40a-carregador-com-medidor-de-cca-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Carregador Digital Jfa Storm Fonte Automotiva 70a Medidor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>436.22</v>
+        <v>493.42</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:19365747#searchVariation=MLB22569833&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4423303644-carregador-digital-jfa-storm-fonte-automotiva-70a-medidor-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fonte Digital Jfa Storm Automotiva 120a Bivolt Carregador </t>
+          <t>Controle Longa Distância Reposição Jfa Tx K1200 Som</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>674.6799999999999</v>
+        <v>49.3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -636,30 +636,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423375714-fonte-digital-jfa-storm-automotiva-120a-bivolt-carregador-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:19365747#searchVariation=MLB29541981&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Reposição Jfa Tx K1200 Som</t>
+          <t xml:space="preserve">Controle Longa Distância Avulso Jfa Várias Cores K1200 Cx </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>50.35</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -667,19 +671,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:19365747#searchVariation=MLB29541981&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1803852214-controle-longa-distncia-avulso-jfa-varias-cores-k1200-cx-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle De Longa Distância Som Automotivo Jfa K1200 Azul </t>
+          <t>Sequenciador Voltimetro Digital Jfa Alta/baixa Voltagem</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -688,7 +692,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41.8</v>
+        <v>62.98</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -698,34 +702,30 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948538513-controle-de-longa-distncia-som-automotivo-jfa-k1200-azul-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3586968937-sequenciador-voltimetro-digital-jfa-altabaixa-voltagem-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Storm Digital Jfa 40a Carregador Com Medidor De Cca</t>
+          <t>Filtro Rca Anti-ruido Jfa 20/20k Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>52.2</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -738,29 +738,25 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423372216-fonte-storm-digital-jfa-40a-carregador-com-medidor-de-cca-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4431471070-filtro-rca-anti-ruido-jfa-2020k-eletromagnetico-stereo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Carregador Jfa Digital Storm Fonte Automotiva 70a Medidor</t>
+          <t>Voltimetro Digital Jfa Sequenciador Alta/baixa Voltagem</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>57.99</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -768,32 +764,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423381104-carregador-jfa-digital-storm-fonte-automotiva-70a-medidor-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587032375-voltimetro-digital-jfa-sequenciador-altabaixa-voltagem-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Digital Jfa Storm Automotiva Carregador 120a Bivolt</t>
+          <t>Controle De Longa Distância Universal Jfa K1200 Azul 1200m</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>634.4</v>
+        <v>49.99</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -808,29 +804,25 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423388158-fonte-digital-jfa-storm-automotiva-carregador-120a-bivolt-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1948540697-controle-de-longa-distncia-universal-jfa-k1200-azul-1200m-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carregador Digital Fonte Jfa Storm 60a Medidor De Cca</t>
+          <t>Filtro Jfa Rca Anti-ruido 20/20k Eletromagnético Stereo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>443.11</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>52.2</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -838,30 +830,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587094409-carregador-digital-fonte-jfa-storm-60a-medidor-de-cca-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3590198911-filtro-jfa-rca-anti-ruido-2020k-eletromagnetico-stereo-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Universal Jfa K1200 Azul 1200m</t>
+          <t>Controle Longa Distância Avulso Jfa K1200 Cx Várias Cores</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>47.99</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -874,25 +870,29 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948540697-controle-de-longa-distncia-universal-jfa-k1200-azul-1200m-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1803855509-controle-longa-distncia-avulso-jfa-k1200-cx-varias-cores-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Digital Jfa Alta/baixa Voltagem</t>
+          <t>Kit 4 Controle Longa Distancia Jfa Azul Avulso K1200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>62.98</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>221.61</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -905,25 +905,29 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3586968937-sequenciador-voltimetro-digital-jfa-altabaixa-voltagem-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2709379077-kit-4-controle-longa-distancia-jfa-azul-avulso-k1200-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Filtro Jfa Rca Anti-ruido 20/20k Eletromagnético Stereo</t>
+          <t>Par Controle Longa Distancia Reposição Jfa Azul K1200 Avulso</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>188.09</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -936,14 +940,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590198911-filtro-jfa-rca-anti-ruido-2020k-eletromagnetico-stereo-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2709347720-par-controle-longa-distancia-reposico-jfa-azul-k1200-avulso-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Voltimetro Digital Jfa Sequenciador Alta/baixa Voltagem</t>
+          <t>Conversor Rca Jfa Adaptador Comando Remoto Slim Automotivo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -952,7 +956,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57.99</v>
+        <v>41.41</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -962,30 +966,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587032375-voltimetro-digital-jfa-sequenciador-altabaixa-voltagem-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587086063-conversor-rca-jfa-adaptador-comando-remoto-slim-automotivo-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruido Jfa 20/20k Eletromagnético Stereo</t>
+          <t>Kit Com 4 Controle Longa Distancia Jfa Azul K1200 Avulso</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>205.42</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -998,25 +1006,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4431471070-filtro-rca-anti-ruido-jfa-2020k-eletromagnetico-stereo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2709355441-kit-com-4-controle-longa-distancia-jfa-azul-k1200-avulso-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Avulso Jfa Várias Cores K1200 Cx </t>
+          <t xml:space="preserve">Kit 2 Controle Longa Distancia Azul Jfa K1200 Avulso </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>102.6</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1024,30 +1036,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803852214-controle-longa-distncia-avulso-jfa-varias-cores-k1200-cx-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2709334936-kit-2-controle-longa-distancia-azul-jfa-k1200-avulso-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Avulso Jfa K1200 Cx Várias Cores</t>
+          <t xml:space="preserve">Controle De Longa Distância Som Automotivo Jfa K1200 Azul </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>47.99</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>41.8</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1060,25 +1076,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803855509-controle-longa-distncia-avulso-jfa-k1200-cx-varias-cores-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1948538513-controle-de-longa-distncia-som-automotivo-jfa-k1200-azul-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kit 4 Controle Longa Distancia Jfa Azul Avulso K1200</t>
+          <t>Controle Reposição Longa Distância Som Vermelho Jfa Tx K1200</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>221.61</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>46.75</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1091,162 +1111,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709379077-kit-4-controle-longa-distancia-jfa-azul-avulso-k1200-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Par Controle Longa Distancia Reposição Jfa Azul K1200 Avulso</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>188.09</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709347720-par-controle-longa-distancia-reposico-jfa-azul-k1200-avulso-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Conversor Rca Jfa Adaptador Comando Remoto Slim Automotivo</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587086063-conversor-rca-jfa-adaptador-comando-remoto-slim-automotivo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Kit Com 4 Controle Longa Distancia Jfa Azul K1200 Avulso</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>205.42</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709355441-kit-com-4-controle-longa-distancia-jfa-azul-k1200-avulso-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kit 2 Controle Longa Distancia Azul Jfa K1200 Avulso </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709334936-kit-2-controle-longa-distancia-azul-jfa-k1200-avulso-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Controle Reposição Longa Distância Som Vermelho Jfa Tx K1200</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>46.75</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141326339-controle-reposico-longa-distncia-som-vermelho-jfa-tx-k1200-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D53b9f064-00c2-4b37-ae5b-2d4c4ec96431</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3141326339-controle-reposico-longa-distncia-som-vermelho-jfa-tx-k1200-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
         </is>
       </c>
     </row>

--- a/dados/qualitysp.xlsx
+++ b/dados/qualitysp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,645 +483,475 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>493.42</v>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Reposição Jfa Tx K1200 Som</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:19365747#searchVariation=MLB21455208&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=61843440-4d26-470f-a23b-dbd41e4c0106</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:19365747#searchVariation=MLB29541981&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=cff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>436.22</v>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle De Longa Distância Som Automotivo Jfa K1200 Azul </t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>41.8</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:19365747#searchVariation=MLB22569833&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=61843440-4d26-470f-a23b-dbd41e4c0106</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1948538513-controle-de-longa-distncia-som-automotivo-jfa-k1200-azul-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Storm Digital Jfa 40a Carregador Com Medidor De Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>402.79</v>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Voltimetro Digital Jfa Sequenciador Alta/baixa Voltagem</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>57.98</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423372216-fonte-storm-digital-jfa-40a-carregador-com-medidor-de-cca-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3587032375-voltimetro-digital-jfa-sequenciador-altabaixa-voltagem-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Carregador Digital Jfa Storm Fonte Automotiva 70a Medidor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>493.42</v>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sequenciador Voltimetro Digital Jfa Alta/baixa Voltagem</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>62.98</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4423303644-carregador-digital-jfa-storm-fonte-automotiva-70a-medidor-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3586968937-sequenciador-voltimetro-digital-jfa-altabaixa-voltagem-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Reposição Jfa Tx K1200 Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Avulso Jfa K1200 Cx Várias Cores</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>47.99</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-reposico-jfa-tx-k1200-som/p/MLB29541981?pdp_filters=seller_id:19365747#searchVariation=MLB29541981&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=61843440-4d26-470f-a23b-dbd41e4c0106</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803855509-controle-longa-distncia-avulso-jfa-k1200-cx-varias-cores-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Longa Distância Avulso Jfa Várias Cores K1200 Cx </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>50.35</v>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Filtro Rca Anti-ruido Jfa 20/20k Eletromagnético Stereo</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803852214-controle-longa-distncia-avulso-jfa-varias-cores-k1200-cx-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4431471070-filtro-rca-anti-ruido-jfa-2020k-eletromagnetico-stereo-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Digital Jfa Alta/baixa Voltagem</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>62.98</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Longa Distância Avulso Jfa Várias Cores K1200 Cx </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>50.35</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3586968937-sequenciador-voltimetro-digital-jfa-altabaixa-voltagem-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1803852214-controle-longa-distncia-avulso-jfa-varias-cores-k1200-cx-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Filtro Rca Anti-ruido Jfa 20/20k Eletromagnético Stereo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Conversor Rca Jfa Adaptador Comando Remoto Slim Automotivo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+      <c r="E9" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4431471070-filtro-rca-anti-ruido-jfa-2020k-eletromagnetico-stereo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3587086063-conversor-rca-jfa-adaptador-comando-remoto-slim-automotivo-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Voltimetro Digital Jfa Sequenciador Alta/baixa Voltagem</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>57.99</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Reposição Longa Distância Som Vermelho Jfa Tx K1200</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>46.75</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587032375-voltimetro-digital-jfa-sequenciador-altabaixa-voltagem-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3141326339-controle-reposico-longa-distncia-som-vermelho-jfa-tx-k1200-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Controle De Longa Distância Universal Jfa K1200 Azul 1200m</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>49.99</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948540697-controle-de-longa-distncia-universal-jfa-k1200-azul-1200m-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1948540697-controle-de-longa-distncia-universal-jfa-k1200-azul-1200m-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>qualitysp</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Filtro Jfa Rca Anti-ruido 20/20k Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3590198911-filtro-jfa-rca-anti-ruido-2020k-eletromagnetico-stereo-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Controle Longa Distância Avulso Jfa K1200 Cx Várias Cores</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>47.99</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1803855509-controle-longa-distncia-avulso-jfa-k1200-cx-varias-cores-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Kit 4 Controle Longa Distancia Jfa Azul Avulso K1200</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>221.61</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709379077-kit-4-controle-longa-distancia-jfa-azul-avulso-k1200-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Par Controle Longa Distancia Reposição Jfa Azul K1200 Avulso</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>188.09</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709347720-par-controle-longa-distancia-reposico-jfa-azul-k1200-avulso-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Conversor Rca Jfa Adaptador Comando Remoto Slim Automotivo</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587086063-conversor-rca-jfa-adaptador-comando-remoto-slim-automotivo-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Kit Com 4 Controle Longa Distancia Jfa Azul K1200 Avulso</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>205.42</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709355441-kit-com-4-controle-longa-distancia-jfa-azul-k1200-avulso-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kit 2 Controle Longa Distancia Azul Jfa K1200 Avulso </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2709334936-kit-2-controle-longa-distancia-azul-jfa-k1200-avulso-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Controle De Longa Distância Som Automotivo Jfa K1200 Azul </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1948538513-controle-de-longa-distncia-som-automotivo-jfa-k1200-azul-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Controle Reposição Longa Distância Som Vermelho Jfa Tx K1200</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>46.75</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3141326339-controle-reposico-longa-distncia-som-vermelho-jfa-tx-k1200-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61843440-4d26-470f-a23b-dbd41e4c0106</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3590198911-filtro-jfa-rca-anti-ruido-2020k-eletromagnetico-stereo-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dcff84be4-ef1a-469f-855b-1cf51f7f517b</t>
         </is>
       </c>
     </row>
